--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3281194.411714165</v>
+        <v>3279306.83019776</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800617</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>295.9408816142887</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>14.01032806733606</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>139.8939792152981</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>132.5172612375155</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>319.4121462068567</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>161.1486436253825</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>172.2689094971421</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>316.5747219976527</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>146.2546375217499</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>234.4970761400735</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527413</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750033</v>
+        <v>78.49471243660165</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>283.3580910135609</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>272.3517879644038</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>97.12772045570674</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>183.1796758467002</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>101.4950386131008</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151908</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002171</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>217.671677290323</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.2898147863549</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2767,19 +2767,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151914</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700707</v>
@@ -2956,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>25.34051740972953</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437409</v>
       </c>
       <c r="G31" t="n">
-        <v>77.92206006422947</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897903</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571488</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523569</v>
+        <v>54.76109577523563</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463133</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606.02060534945</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="C2" t="n">
-        <v>1237.058088409038</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="D2" t="n">
-        <v>878.792389802288</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>493.0041372040437</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>486.0586364548403</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>68.09482835302714</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>68.09482835302714</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X2" t="n">
-        <v>1992.620445413572</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="Y2" t="n">
-        <v>1992.620445413572</v>
+        <v>1662.483574129469</v>
       </c>
     </row>
     <row r="3">
@@ -4398,40 +4398,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="W4" t="n">
-        <v>184.0273259635867</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>195.2500315327868</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1725.724578248621</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C5" t="n">
-        <v>1356.76206130821</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D5" t="n">
-        <v>998.4963627014592</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>612.7081101032149</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>201.7222053136074</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>187.7988012521983</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312743</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X5" t="n">
-        <v>2112.324418312743</v>
+        <v>1373.167964150355</v>
       </c>
       <c r="Y5" t="n">
-        <v>2112.324418312743</v>
+        <v>983.0286321745434</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>976.0491016702019</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="C8" t="n">
-        <v>607.0865847297903</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D8" t="n">
-        <v>248.8208861230398</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>1904.980192166102</v>
       </c>
       <c r="W8" t="n">
-        <v>1739.654191907093</v>
+        <v>1552.211536895988</v>
       </c>
       <c r="X8" t="n">
-        <v>1366.188433646014</v>
+        <v>1178.745778634908</v>
       </c>
       <c r="Y8" t="n">
-        <v>976.0491016702019</v>
+        <v>788.606446659096</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5027,25 +5027,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822468</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515098</v>
@@ -5054,37 +5054,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>452.0983189327497</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>698.8634468392138</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1308.553578799928</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,67 +5261,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>566.6879222525852</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5467,19 +5467,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1212.69597660481</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>958.0114883989233</v>
       </c>
       <c r="W16" t="n">
-        <v>969.1289662263549</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="X16" t="n">
-        <v>969.1289662263549</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y16" t="n">
-        <v>748.3363870828249</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="17">
@@ -5510,34 +5510,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>195.3259000014039</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>195.3259000014039</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>195.3259000014038</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>195.3259000014038</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1313.886294955175</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1090.100879744681</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>644.1080300429514</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>644.1080300429514</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>416.118479144934</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>195.3259000014039</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>199.7373324836202</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>199.7373324836201</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>199.7373324836201</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>199.7373324836201</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>199.73733248362</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011508</v>
+        <v>898.792518248838</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952639</v>
+        <v>898.792518248838</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>609.3753482118773</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>381.3857973138599</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>381.3857973138598</v>
       </c>
     </row>
     <row r="23">
@@ -5984,10 +5984,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514085</v>
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426791</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426791</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426791</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387593</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011508</v>
+        <v>944.185370807897</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>944.185370807897</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>654.7682007709362</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>426.7786498729189</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>426.7786498729189</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6203,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6248,28 +6248,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>199.5300356889272</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>199.5300356889272</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>199.5300356889272</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>199.5300356889272</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542193</v>
+        <v>439.5324299542199</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076832</v>
+        <v>326.3571123076839</v>
       </c>
       <c r="D31" t="n">
-        <v>326.3571123076832</v>
+        <v>326.3571123076839</v>
       </c>
       <c r="E31" t="n">
-        <v>326.3571123076832</v>
+        <v>300.7606300756339</v>
       </c>
       <c r="F31" t="n">
-        <v>326.3571123076832</v>
+        <v>209.6315478590944</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6640,7 +6640,7 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
@@ -6649,7 +6649,7 @@
         <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
         <v>1335.260356662</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981894</v>
+        <v>902.6804289818945</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652475</v>
+        <v>730.451743365248</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.420029503088</v>
+        <v>565.4200295030888</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6677,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6780,25 +6780,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,55 +6832,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982965</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525395</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254951</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6935,7 +6935,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6980,7 +6980,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525397</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,7 +7135,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010315</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7172,10 +7172,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,10 +7190,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083194</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103125</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7348,34 +7348,34 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7397,46 +7397,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,7 +7837,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>165.9802687929762</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>306.1147370139961</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504511</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9006,13 +9006,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>306.1147370139963</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>189.0022427662467</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>306.1147370139961</v>
+        <v>381.3739760657747</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627462</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>213.2603911806626</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9717,28 +9717,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>87.16935584025367</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>158.8724419039332</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>9.90051268448542</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>223.6742649934478</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,13 +10586,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>223.6742649934479</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,25 +10899,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>297.3877236703352</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>62.91120742583809</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>15.83804904622872</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338594</v>
+        <v>143.0528486217876</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,19 +23701,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>2.879261385016491</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>14.1712103721872</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>48.29332756722454</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>14.74113413690293</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>64.9985298502768</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675362</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U22" t="n">
-        <v>82.3938331833866</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338615</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>68.56567510825437</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>45.14414786021424</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338591</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965526</v>
+        <v>93.4122163896552</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801207</v>
+        <v>65.89018860828249</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437415</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>33.36825177059102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897897</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571482</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>725239.1214241709</v>
+        <v>725239.121424171</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>725239.1214241708</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>753666.6611177812</v>
+        <v>753666.6611177811</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.5043846411</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.504384641</v>
       </c>
-      <c r="D2" t="n">
-        <v>697885.5043846411</v>
-      </c>
       <c r="E2" t="n">
-        <v>664749.4015541051</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="F2" t="n">
-        <v>664749.4015541052</v>
+        <v>664749.401554105</v>
       </c>
       <c r="G2" t="n">
-        <v>664749.4015541051</v>
+        <v>664749.401554105</v>
       </c>
       <c r="H2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="I2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="J2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="K2" t="n">
-        <v>691597.6334869595</v>
+        <v>691597.6334869593</v>
       </c>
       <c r="L2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="M2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="N2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="O2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="P2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846412</v>
       </c>
     </row>
     <row r="3">
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284572</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086683</v>
+        <v>10342.9068008668</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.6053028457</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687069</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687069</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687069</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106726</v>
+        <v>40339.23010106727</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="P4" t="n">
         <v>44593.39482819119</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-140574.3206798371</v>
+        <v>-140574.3206798375</v>
       </c>
       <c r="C6" t="n">
-        <v>449393.5585347071</v>
+        <v>449393.5585347073</v>
       </c>
       <c r="D6" t="n">
-        <v>449393.5585347073</v>
+        <v>449393.558534707</v>
       </c>
       <c r="E6" t="n">
-        <v>25427.43154162163</v>
+        <v>25329.97241564913</v>
       </c>
       <c r="F6" t="n">
-        <v>550587.4680185179</v>
+        <v>550490.0088925456</v>
       </c>
       <c r="G6" t="n">
-        <v>550587.4680185178</v>
+        <v>550490.0088925456</v>
       </c>
       <c r="H6" t="n">
-        <v>550587.4680185175</v>
+        <v>550490.0088925455</v>
       </c>
       <c r="I6" t="n">
-        <v>550587.4680185177</v>
+        <v>550490.0088925452</v>
       </c>
       <c r="J6" t="n">
-        <v>374164.2488259246</v>
+        <v>374066.7896999524</v>
       </c>
       <c r="K6" t="n">
-        <v>510467.5895528238</v>
+        <v>510449.0958148892</v>
       </c>
       <c r="L6" t="n">
-        <v>545234.0969355574</v>
+        <v>545234.0969355572</v>
       </c>
       <c r="M6" t="n">
-        <v>420775.988502587</v>
+        <v>420775.9885025868</v>
       </c>
       <c r="N6" t="n">
         <v>555577.003736424</v>
       </c>
       <c r="O6" t="n">
-        <v>555577.0037364243</v>
+        <v>555577.0037364241</v>
       </c>
       <c r="P6" t="n">
-        <v>511414.3984335786</v>
+        <v>511414.3984335789</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26744,31 +26744,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108354</v>
+        <v>12.9286335010835</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>58.74216000639427</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>137.9209881775252</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>27.35284188332969</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>191.4055115268417</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>50.3189544716123</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,13 +27825,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>125.1332306165952</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>209.6614605751197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,10 +27907,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>11.17753647248225</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>20.99218357687792</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>17.64056718375451</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-5.656949185851152e-14</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,13 +35258,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>316.5557073809155</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>588.4784392551043</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3724419700205</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>499.426619816713</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>588.4784392551043</v>
+        <v>663.7376783068829</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187473</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,19 +36121,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095148</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>546.4549645786756</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556549</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>369.5330580813618</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556549</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36680,19 +36680,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>365.9658568354579</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36920,19 +36920,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>343.0950860824984</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412269</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043192</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,19 +37069,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>472.9319699494721</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>374.2497035813871</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>630.582297068348</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37789,7 +37789,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37859,13 +37859,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>373.3355844763043</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
@@ -37874,10 +37874,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>10.73738595686864</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>265.095754002253</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
